--- a/doctor_list.xlsx
+++ b/doctor_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeyeonho/Desktop/analysis/OCS analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaeYeonho\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FB8582D-7851-F74B-A60A-C5053F49C08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A30F5B-D724-4484-BF0D-D704979ACE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="16800" windowHeight="20500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보존과" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,11 @@
     <sheet name="치주과" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
   <si>
     <t>이윤선</t>
   </si>
@@ -466,6 +454,10 @@
   </si>
   <si>
     <t>FR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이신재</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -473,7 +465,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -879,14 +871,14 @@
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="8.83203125" style="1"/>
-    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="7" width="8.875" style="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -903,7 +895,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -911,7 +903,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -919,7 +911,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -927,7 +919,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -935,7 +927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -943,7 +935,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -951,7 +943,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -959,62 +951,62 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>89</v>
       </c>
@@ -1038,9 +1030,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -1048,7 +1040,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1048,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1056,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1072,7 +1064,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1080,7 +1072,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1088,7 +1080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1096,39 +1088,39 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
@@ -1145,9 +1137,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -1155,7 +1147,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1163,7 +1155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1163,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1179,7 +1171,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1187,7 +1179,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1195,7 +1187,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1203,7 +1195,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1211,7 +1203,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1219,70 +1211,70 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -1295,13 +1287,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CECEC7-E7B4-6945-8FEF-2ED2171EDC44}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1310,7 +1302,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1319,7 +1311,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1328,7 +1320,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1337,7 +1329,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1346,7 +1338,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1355,79 +1347,82 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
@@ -1445,9 +1440,9 @@
       <selection activeCell="A20" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1456,7 +1451,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1460,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1474,7 +1469,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1483,7 +1478,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1492,7 +1487,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1501,75 +1496,75 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
@@ -1582,13 +1577,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684316D9-8B04-0D49-B4D7-A790D28163D7}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1597,7 +1592,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1606,7 +1601,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1615,7 +1610,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1624,7 +1619,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1628,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1642,75 +1637,75 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
     </row>
   </sheetData>

--- a/doctor_list.xlsx
+++ b/doctor_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BaeYeonho\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baeyeonho/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91A30F5B-D724-4484-BF0D-D704979ACE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF1A92-6549-1B48-8FAF-E8D60D4A1654}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="보존과" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="132">
   <si>
     <t>이윤선</t>
   </si>
@@ -459,13 +459,17 @@
   <si>
     <t>이신재</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>[보존]일반</t>
+    <phoneticPr fontId="1" alignment="center"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -865,20 +869,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C18D363-41A1-074B-A27F-C022DBAEA9EB}">
-  <dimension ref="A1:X20"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="150" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="7" width="8.875" style="1"/>
-    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="1" max="7" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>128</v>
       </c>
@@ -895,7 +899,7 @@
       <c r="W1" s="3"/>
       <c r="X1" s="3"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -903,7 +907,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -911,7 +915,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -919,7 +923,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -927,7 +931,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>24</v>
       </c>
@@ -935,7 +939,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -943,7 +947,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>36</v>
       </c>
@@ -951,64 +955,69 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
         <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -1030,9 +1039,9 @@
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>129</v>
       </c>
@@ -1040,7 +1049,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -1048,7 +1057,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1056,7 +1065,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -1064,7 +1073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>23</v>
       </c>
@@ -1072,7 +1081,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -1080,7 +1089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>35</v>
       </c>
@@ -1088,39 +1097,39 @@
         <v>101</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2"/>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2"/>
     </row>
   </sheetData>
@@ -1137,9 +1146,9 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>129</v>
       </c>
@@ -1147,7 +1156,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1155,7 +1164,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1163,7 +1172,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1179,7 +1188,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>27</v>
       </c>
@@ -1187,7 +1196,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1204,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>39</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>45</v>
       </c>
@@ -1211,70 +1220,70 @@
         <v>117</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1">
       <c r="A25" s="1"/>
     </row>
   </sheetData>
@@ -1287,13 +1296,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9CECEC7-E7B4-6945-8FEF-2ED2171EDC44}">
   <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1302,7 +1311,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1311,7 +1320,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1320,7 +1329,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
@@ -1329,7 +1338,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>22</v>
       </c>
@@ -1338,7 +1347,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
@@ -1347,7 +1356,7 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>34</v>
       </c>
@@ -1356,73 +1365,73 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18" s="1"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19" s="1"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20" s="1"/>
       <c r="C20" s="1"/>
     </row>
@@ -1440,9 +1449,9 @@
       <selection activeCell="A20" sqref="A17:A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1451,7 +1460,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1460,7 +1469,7 @@
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1469,7 +1478,7 @@
       </c>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1478,7 +1487,7 @@
       </c>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1496,7 @@
       </c>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1496,75 +1505,75 @@
       </c>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="1"/>
     </row>
   </sheetData>
@@ -1581,9 +1590,9 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>129</v>
       </c>
@@ -1592,7 +1601,7 @@
       </c>
       <c r="C1" s="2"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1601,7 +1610,7 @@
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1610,7 +1619,7 @@
       </c>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>14</v>
       </c>
@@ -1619,7 +1628,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -1628,7 +1637,7 @@
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
@@ -1637,75 +1646,75 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1">
       <c r="A20" s="2"/>
     </row>
   </sheetData>
